--- a/mera/serialization_deserialization/Performance Summary. Additional launch with cPickle.xlsx
+++ b/mera/serialization_deserialization/Performance Summary. Additional launch with cPickle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12075"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,10 @@
     <t>cPickle</t>
   </si>
   <si>
-    <t>Serialization vs. Deserialization</t>
+    <t>Minimum time of Serialization and Deserialization</t>
   </si>
   <si>
-    <t>Minimum time of Serialization and Deserialization</t>
+    <t>Serialization / Deserialization</t>
   </si>
 </sst>
 </file>
@@ -220,40 +220,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -586,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R50" sqref="R50"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,16 +827,36 @@
       <c r="P6" s="6">
         <v>4.3469803096900002</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="Q6" s="6">
+        <v>3.2301038809699998</v>
+      </c>
+      <c r="R6" s="6">
+        <v>3.2587350668899999</v>
+      </c>
+      <c r="S6" s="6">
+        <v>3.89500223839</v>
+      </c>
+      <c r="T6" s="6">
+        <v>3.3984596573600001</v>
+      </c>
+      <c r="U6" s="6">
+        <v>3.2239752782300002</v>
+      </c>
+      <c r="V6" s="6">
+        <v>4.1694815295499996</v>
+      </c>
+      <c r="W6" s="6">
+        <v>3.8131393761100001</v>
+      </c>
+      <c r="X6" s="6">
+        <v>5.2031741247000003</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>3.8826717533599999</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>3.7167684420499998</v>
+      </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
     </row>
@@ -922,16 +909,36 @@
       <c r="P7" s="6">
         <v>582.390164411</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="Q7" s="6">
+        <v>212.18641262700001</v>
+      </c>
+      <c r="R7" s="6">
+        <v>240.139140274</v>
+      </c>
+      <c r="S7" s="6">
+        <v>432.63091264399998</v>
+      </c>
+      <c r="T7" s="6">
+        <v>288.38199223700002</v>
+      </c>
+      <c r="U7" s="6">
+        <v>221.79394877300001</v>
+      </c>
+      <c r="V7" s="6">
+        <v>516.01892148499996</v>
+      </c>
+      <c r="W7" s="6">
+        <v>448.56878438199999</v>
+      </c>
+      <c r="X7" s="6">
+        <v>866.97973676300001</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>448.70589906800001</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>420.49398803700001</v>
+      </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
@@ -984,16 +991,36 @@
       <c r="P8" s="6">
         <v>42.227342122800003</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
+      <c r="Q8" s="6">
+        <v>14.775383445699999</v>
+      </c>
+      <c r="R8" s="6">
+        <v>18.512257365499998</v>
+      </c>
+      <c r="S8" s="6">
+        <v>33.727369017599997</v>
+      </c>
+      <c r="T8" s="6">
+        <v>20.402902510400001</v>
+      </c>
+      <c r="U8" s="6">
+        <v>15.2354769683</v>
+      </c>
+      <c r="V8" s="6">
+        <v>36.1795880281</v>
+      </c>
+      <c r="W8" s="6">
+        <v>31.012254645500001</v>
+      </c>
+      <c r="X8" s="6">
+        <v>63.926472126999997</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>32.909042792999998</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>31.200277822299999</v>
+      </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
@@ -1046,16 +1073,36 @@
       <c r="P9" s="6">
         <v>6.95259803157</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
+      <c r="Q9" s="6">
+        <v>2.4375054999699999</v>
+      </c>
+      <c r="R9" s="6">
+        <v>3.0005865564300001</v>
+      </c>
+      <c r="S9" s="6">
+        <v>5.3119152235599998</v>
+      </c>
+      <c r="T9" s="6">
+        <v>3.5006657559500001</v>
+      </c>
+      <c r="U9" s="6">
+        <v>2.6645799593500001</v>
+      </c>
+      <c r="V9" s="6">
+        <v>6.1736479042200001</v>
+      </c>
+      <c r="W9" s="6">
+        <v>5.2385659095200001</v>
+      </c>
+      <c r="X9" s="6">
+        <v>11.282492362399999</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>5.52744287315</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>5.0289687838699999</v>
+      </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
@@ -1125,43 +1172,43 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4375054999699999</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.0005865564300001</v>
       </c>
       <c r="S10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.89500223839</v>
       </c>
       <c r="T10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3984596573600001</v>
       </c>
       <c r="U10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.6645799593500001</v>
       </c>
       <c r="V10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1694815295499996</v>
       </c>
       <c r="W10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.8131393761100001</v>
       </c>
       <c r="X10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2031741247000003</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.8826717533599999</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.7167684420499998</v>
       </c>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -1277,16 +1324,36 @@
       <c r="P13" s="6">
         <v>7.0844930255299996</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
+      <c r="Q13" s="6">
+        <v>3.57023173299</v>
+      </c>
+      <c r="R13" s="6">
+        <v>3.6284755388700001</v>
+      </c>
+      <c r="S13" s="6">
+        <v>5.0186395666700001</v>
+      </c>
+      <c r="T13" s="6">
+        <v>4.4234678253100004</v>
+      </c>
+      <c r="U13" s="6">
+        <v>3.94958654651</v>
+      </c>
+      <c r="V13" s="6">
+        <v>6.4274838009000002</v>
+      </c>
+      <c r="W13" s="6">
+        <v>5.5357049029100001</v>
+      </c>
+      <c r="X13" s="6">
+        <v>9.4799337220000002</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>6.0567212551400003</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>4.9689349088699997</v>
+      </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
     </row>
@@ -1339,16 +1406,36 @@
       <c r="P14" s="6">
         <v>909.41503897999996</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
+      <c r="Q14" s="6">
+        <v>292.82416138899998</v>
+      </c>
+      <c r="R14" s="6">
+        <v>382.95240284900001</v>
+      </c>
+      <c r="S14" s="6">
+        <v>721.29162926699996</v>
+      </c>
+      <c r="T14" s="6">
+        <v>436.09115624600003</v>
+      </c>
+      <c r="U14" s="6">
+        <v>321.35978853199998</v>
+      </c>
+      <c r="V14" s="6">
+        <v>781.19460009700003</v>
+      </c>
+      <c r="W14" s="6">
+        <v>688.13835467900003</v>
+      </c>
+      <c r="X14" s="6">
+        <v>1363.4116397400001</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>731.95537307100005</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>659.75872114699996</v>
+      </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
@@ -1401,16 +1488,36 @@
       <c r="P15" s="6">
         <v>40.6028347166</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
+      <c r="Q15" s="6">
+        <v>15.7535304585</v>
+      </c>
+      <c r="R15" s="6">
+        <v>18.381498800500001</v>
+      </c>
+      <c r="S15" s="6">
+        <v>32.592669996600002</v>
+      </c>
+      <c r="T15" s="6">
+        <v>20.539514479800001</v>
+      </c>
+      <c r="U15" s="6">
+        <v>15.654077943200001</v>
+      </c>
+      <c r="V15" s="6">
+        <v>35.559019321199997</v>
+      </c>
+      <c r="W15" s="6">
+        <v>31.726488702899999</v>
+      </c>
+      <c r="X15" s="6">
+        <v>62.272158665299997</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>30.507405875</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>30.576367375699999</v>
+      </c>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
@@ -1463,16 +1570,36 @@
       <c r="P16" s="6">
         <v>3.7534545968800002</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
+      <c r="Q16" s="6">
+        <v>1.5841577283199999</v>
+      </c>
+      <c r="R16" s="6">
+        <v>2.0757400195</v>
+      </c>
+      <c r="S16" s="6">
+        <v>3.4269030044300002</v>
+      </c>
+      <c r="T16" s="6">
+        <v>2.0589468416000001</v>
+      </c>
+      <c r="U16" s="6">
+        <v>1.52928222196</v>
+      </c>
+      <c r="V16" s="6">
+        <v>3.3358222782000002</v>
+      </c>
+      <c r="W16" s="6">
+        <v>2.9027743511300002</v>
+      </c>
+      <c r="X16" s="6">
+        <v>5.8963196703799996</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>2.8975164631000001</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>3.09609925572</v>
+      </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
@@ -1542,43 +1669,43 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5841577283199999</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0757400195</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.4269030044300002</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0589468416000001</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.52928222196</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3358222782000002</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.9027743511300002</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.8963196703799996</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.8975164631000001</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.09609925572</v>
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -1887,53 +2014,53 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="6" t="e">
+      <c r="Q24" s="6">
         <f t="shared" ref="Q24:U24" si="6">Q6/Q$10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="6" t="e">
+        <v>1.3251678328560714</v>
+      </c>
+      <c r="R24" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="6" t="e">
+        <v>1.0860326824789672</v>
+      </c>
+      <c r="S24" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="T24" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="U24" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V24" s="6" t="e">
+        <v>1.2099375238926811</v>
+      </c>
+      <c r="V24" s="6">
         <f t="shared" ref="V24:Z24" si="7">V6/V$10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="W24" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="X24" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="6">
         <f>AVERAGE(B24:Z24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB24" s="6" t="e">
+        <v>1.0737217607495508</v>
+      </c>
+      <c r="AB24" s="6">
         <f>MEDIAN(B24:Z24)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -2000,53 +2127,53 @@
         <f t="shared" si="11"/>
         <v>133.9757999622806</v>
       </c>
-      <c r="Q25" s="6" t="e">
+      <c r="Q25" s="6">
         <f t="shared" ref="Q25:U25" si="12">Q7/Q$10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="6" t="e">
+        <v>87.050639528654003</v>
+      </c>
+      <c r="R25" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="6" t="e">
+        <v>80.030732577736302</v>
+      </c>
+      <c r="S25" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="6" t="e">
+        <v>111.07334121143613</v>
+      </c>
+      <c r="T25" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="6" t="e">
+        <v>84.856676645389882</v>
+      </c>
+      <c r="U25" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="6" t="e">
+        <v>83.237865688633576</v>
+      </c>
+      <c r="V25" s="6">
         <f t="shared" ref="V25:Z25" si="13">V7/V$10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="6" t="e">
+        <v>123.76093234323368</v>
+      </c>
+      <c r="W25" s="6">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X25" s="6" t="e">
+        <v>117.63765761943128</v>
+      </c>
+      <c r="X25" s="6">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y25" s="6" t="e">
+        <v>166.62516302257856</v>
+      </c>
+      <c r="Y25" s="6">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z25" s="6" t="e">
+        <v>115.56627177656657</v>
+      </c>
+      <c r="Z25" s="6">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA25" s="6" t="e">
+        <v>113.13429787008059</v>
+      </c>
+      <c r="AA25" s="6">
         <f>AVERAGE(B25:Z25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB25" s="6" t="e">
+        <v>121.79449217715337</v>
+      </c>
+      <c r="AB25" s="6">
         <f>MEDIAN(B25:Z25)</f>
-        <v>#DIV/0!</v>
+        <v>122.89542609861881</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -2113,53 +2240,53 @@
         <f t="shared" si="16"/>
         <v>9.7141783754275615</v>
       </c>
-      <c r="Q26" s="6" t="e">
+      <c r="Q26" s="6">
         <f t="shared" ref="Q26:U26" si="17">Q8/Q$10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="6" t="e">
+        <v>6.0616820950278267</v>
+      </c>
+      <c r="R26" s="6">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="6" t="e">
+        <v>6.1695461928368021</v>
+      </c>
+      <c r="S26" s="6">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="6" t="e">
+        <v>8.6591398292857491</v>
+      </c>
+      <c r="T26" s="6">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" s="6" t="e">
+        <v>6.0035735502152274</v>
+      </c>
+      <c r="U26" s="6">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V26" s="6" t="e">
+        <v>5.7177781116452424</v>
+      </c>
+      <c r="V26" s="6">
         <f t="shared" ref="V26:Z26" si="18">V8/V$10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W26" s="6" t="e">
+        <v>8.6772390695791763</v>
+      </c>
+      <c r="W26" s="6">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X26" s="6" t="e">
+        <v>8.1329979281107114</v>
+      </c>
+      <c r="X26" s="6">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y26" s="6" t="e">
+        <v>12.286052819861339</v>
+      </c>
+      <c r="Y26" s="6">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z26" s="6" t="e">
+        <v>8.4758756040917067</v>
+      </c>
+      <c r="Z26" s="6">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA26" s="6" t="e">
+        <v>8.3944637145841003</v>
+      </c>
+      <c r="AA26" s="6">
         <f>AVERAGE(B26:Z26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB26" s="6" t="e">
+        <v>9.0173330641173184</v>
+      </c>
+      <c r="AB26" s="6">
         <f>MEDIAN(B26:Z26)</f>
-        <v>#DIV/0!</v>
+        <v>9.0460405593190814</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -2226,53 +2353,53 @@
         <f t="shared" si="19"/>
         <v>1.5994086782660897</v>
       </c>
-      <c r="Q27" s="6" t="e">
+      <c r="Q27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="R27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="S27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" s="6" t="e">
+        <v>1.3637771940679759</v>
+      </c>
+      <c r="T27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U27" s="6" t="e">
+        <v>1.0300742421257387</v>
+      </c>
+      <c r="U27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V27" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="V27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W27" s="6" t="e">
+        <v>1.4806752015726772</v>
+      </c>
+      <c r="W27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X27" s="6" t="e">
+        <v>1.3738196779117364</v>
+      </c>
+      <c r="X27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y27" s="6" t="e">
+        <v>2.1683864679524856</v>
+      </c>
+      <c r="Y27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z27" s="6" t="e">
+        <v>1.4236183804017537</v>
+      </c>
+      <c r="Z27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA27" s="6" t="e">
+        <v>1.3530487202200443</v>
+      </c>
+      <c r="AA27" s="6">
         <f>AVERAGE(B27:Z27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB27" s="6" t="e">
+        <v>1.4824014517902151</v>
+      </c>
+      <c r="AB27" s="6">
         <f>MEDIAN(B27:Z27)</f>
-        <v>#DIV/0!</v>
+        <v>1.4806752015726772</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -2401,53 +2528,53 @@
         <f t="shared" si="23"/>
         <v>1.8874593638135047</v>
       </c>
-      <c r="Q30" s="6" t="e">
+      <c r="Q30" s="6">
         <f t="shared" ref="Q30:U30" si="24">Q13/Q$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R30" s="6" t="e">
+        <v>2.2537097595554658</v>
+      </c>
+      <c r="R30" s="6">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="6" t="e">
+        <v>1.7480394966533526</v>
+      </c>
+      <c r="S30" s="6">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="6" t="e">
+        <v>1.4644825255288354</v>
+      </c>
+      <c r="T30" s="6">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U30" s="6" t="e">
+        <v>2.1484128370563176</v>
+      </c>
+      <c r="U30" s="6">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V30" s="6" t="e">
+        <v>2.5826407250376744</v>
+      </c>
+      <c r="V30" s="6">
         <f t="shared" ref="V30:Z30" si="25">V13/V$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W30" s="6" t="e">
+        <v>1.9268064257812474</v>
+      </c>
+      <c r="W30" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X30" s="6" t="e">
+        <v>1.9070393469458091</v>
+      </c>
+      <c r="X30" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y30" s="6" t="e">
+        <v>1.6077713305847692</v>
+      </c>
+      <c r="Y30" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z30" s="6" t="e">
+        <v>2.0903146995962274</v>
+      </c>
+      <c r="Z30" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA30" s="6" t="e">
+        <v>1.6049016838494314</v>
+      </c>
+      <c r="AA30" s="6">
         <f>AVERAGE(B30:Z30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB30" s="6" t="e">
+        <v>1.7869555142713731</v>
+      </c>
+      <c r="AB30" s="6">
         <f>MEDIAN(B30:Z30)</f>
-        <v>#DIV/0!</v>
+        <v>1.6653554848695411</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -2514,53 +2641,53 @@
         <f t="shared" si="29"/>
         <v>242.28747557941338</v>
       </c>
-      <c r="Q31" s="6" t="e">
+      <c r="Q31" s="6">
         <f t="shared" ref="Q31:U31" si="30">Q14/Q$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" s="6" t="e">
+        <v>184.8453320993107</v>
+      </c>
+      <c r="R31" s="6">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S31" s="6" t="e">
+        <v>184.4895792591814</v>
+      </c>
+      <c r="S31" s="6">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="6" t="e">
+        <v>210.47914934696934</v>
+      </c>
+      <c r="T31" s="6">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U31" s="6" t="e">
+        <v>211.80301862825908</v>
+      </c>
+      <c r="U31" s="6">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V31" s="6" t="e">
+        <v>210.13766060794859</v>
+      </c>
+      <c r="V31" s="6">
         <f t="shared" ref="V31:Z31" si="31">V14/V$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W31" s="6" t="e">
+        <v>234.18351906880673</v>
+      </c>
+      <c r="W31" s="6">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X31" s="6" t="e">
+        <v>237.06229676830361</v>
+      </c>
+      <c r="X31" s="6">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y31" s="6" t="e">
+        <v>231.23095692878746</v>
+      </c>
+      <c r="Y31" s="6">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z31" s="6" t="e">
+        <v>252.61474175987746</v>
+      </c>
+      <c r="Z31" s="6">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA31" s="6" t="e">
+        <v>213.09353048940693</v>
+      </c>
+      <c r="AA31" s="6">
         <f>AVERAGE(B31:Z31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB31" s="6" t="e">
+        <v>219.10698407943426</v>
+      </c>
+      <c r="AB31" s="6">
         <f>MEDIAN(B31:Z31)</f>
-        <v>#DIV/0!</v>
+        <v>221.66250914350377</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -2627,53 +2754,53 @@
         <f t="shared" si="34"/>
         <v>10.817457269990815</v>
       </c>
-      <c r="Q32" s="6" t="e">
+      <c r="Q32" s="6">
         <f t="shared" ref="Q32:U32" si="35">Q15/Q$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="6" t="e">
+        <v>9.9444204177866986</v>
+      </c>
+      <c r="R32" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S32" s="6" t="e">
+        <v>8.8553954868238751</v>
+      </c>
+      <c r="S32" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="6" t="e">
+        <v>9.5108236079244293</v>
+      </c>
+      <c r="T32" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U32" s="6" t="e">
+        <v>9.9757381127134011</v>
+      </c>
+      <c r="U32" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V32" s="6" t="e">
+        <v>10.236225673987761</v>
+      </c>
+      <c r="V32" s="6">
         <f t="shared" ref="V32:Z32" si="36">V15/V$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W32" s="6" t="e">
+        <v>10.659746340080066</v>
+      </c>
+      <c r="W32" s="6">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X32" s="6" t="e">
+        <v>10.929712359677362</v>
+      </c>
+      <c r="X32" s="6">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y32" s="6" t="e">
+        <v>10.561191072818266</v>
+      </c>
+      <c r="Y32" s="6">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z32" s="6" t="e">
+        <v>10.528811919971174</v>
+      </c>
+      <c r="Z32" s="6">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA32" s="6" t="e">
+        <v>9.8757710429375241</v>
+      </c>
+      <c r="AA32" s="6">
         <f>AVERAGE(B32:Z32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB32" s="6" t="e">
+        <v>10.043702761457848</v>
+      </c>
+      <c r="AB32" s="6">
         <f>MEDIAN(B32:Z32)</f>
-        <v>#DIV/0!</v>
+        <v>10.070327626068792</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
@@ -2740,53 +2867,53 @@
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="Q33" s="6" t="e">
+      <c r="Q33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="R33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="S33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="T33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="U33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="V33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="W33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="X33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="6">
         <f>AVERAGE(B33:Z33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="6">
         <f>MEDIAN(B33:Z33)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
@@ -2821,7 +2948,7 @@
     </row>
     <row r="35" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2915,53 +3042,53 @@
         <f t="shared" si="38"/>
         <v>0.61359087997193662</v>
       </c>
-      <c r="Q36" s="6" t="e">
+      <c r="Q36" s="6">
         <f t="shared" ref="Q36:U36" si="39">Q6/Q13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R36" s="6" t="e">
+        <v>0.90473227581360671</v>
+      </c>
+      <c r="R36" s="6">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S36" s="6" t="e">
+        <v>0.89810032670217566</v>
+      </c>
+      <c r="S36" s="6">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T36" s="6" t="e">
+        <v>0.77610718734568074</v>
+      </c>
+      <c r="T36" s="6">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U36" s="6" t="e">
+        <v>0.76827950186838612</v>
+      </c>
+      <c r="U36" s="6">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V36" s="6" t="e">
+        <v>0.81628171462119836</v>
+      </c>
+      <c r="V36" s="6">
         <f t="shared" ref="V36:Z36" si="40">V6/V13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W36" s="6" t="e">
+        <v>0.64869576629133996</v>
+      </c>
+      <c r="W36" s="6">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X36" s="6" t="e">
+        <v>0.68882634515172858</v>
+      </c>
+      <c r="X36" s="6">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y36" s="6" t="e">
+        <v>0.54886186731717745</v>
+      </c>
+      <c r="Y36" s="6">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z36" s="6" t="e">
+        <v>0.64105174892521155</v>
+      </c>
+      <c r="Z36" s="6">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA36" s="6" t="e">
+        <v>0.74800103245772664</v>
+      </c>
+      <c r="AA36" s="6">
         <f>AVERAGE(B36:Z36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB36" s="6" t="e">
+        <v>0.71687630946698855</v>
+      </c>
+      <c r="AB36" s="6">
         <f>MEDIAN(B36:Z36)</f>
-        <v>#DIV/0!</v>
+        <v>0.66269654672329015</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
@@ -3028,53 +3155,53 @@
         <f t="shared" si="41"/>
         <v>0.64040085048979278</v>
       </c>
-      <c r="Q37" s="6" t="e">
+      <c r="Q37" s="6">
         <f t="shared" ref="Q37:U37" si="42">Q7/Q14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R37" s="6" t="e">
+        <v>0.72462057645961331</v>
+      </c>
+      <c r="R37" s="6">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S37" s="6" t="e">
+        <v>0.62707307353986763</v>
+      </c>
+      <c r="S37" s="6">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T37" s="6" t="e">
+        <v>0.59980026814348808</v>
+      </c>
+      <c r="T37" s="6">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U37" s="6" t="e">
+        <v>0.66128832953063388</v>
+      </c>
+      <c r="U37" s="6">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V37" s="6" t="e">
+        <v>0.69017330944289712</v>
+      </c>
+      <c r="V37" s="6">
         <f t="shared" ref="V37:Z37" si="43">V7/V14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W37" s="6" t="e">
+        <v>0.66055106041558209</v>
+      </c>
+      <c r="W37" s="6">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X37" s="6" t="e">
+        <v>0.65185842546335981</v>
+      </c>
+      <c r="X37" s="6">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y37" s="6" t="e">
+        <v>0.63588993337942412</v>
+      </c>
+      <c r="Y37" s="6">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z37" s="6" t="e">
+        <v>0.61302357435454646</v>
+      </c>
+      <c r="Z37" s="6">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA37" s="6" t="e">
+        <v>0.63734509989646704</v>
+      </c>
+      <c r="AA37" s="6">
         <f>AVERAGE(B37:Z37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB37" s="6" t="e">
+        <v>0.6377540121440507</v>
+      </c>
+      <c r="AB37" s="6">
         <f>MEDIAN(B37:Z37)</f>
-        <v>#DIV/0!</v>
+        <v>0.63089690455003622</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
@@ -3141,53 +3268,53 @@
         <f t="shared" si="44"/>
         <v>1.0400097041878664</v>
       </c>
-      <c r="Q38" s="6" t="e">
+      <c r="Q38" s="6">
         <f t="shared" ref="Q38:U38" si="45">Q8/Q15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R38" s="6" t="e">
+        <v>0.93790934575733587</v>
+      </c>
+      <c r="R38" s="6">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S38" s="6" t="e">
+        <v>1.0071135964710582</v>
+      </c>
+      <c r="S38" s="6">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T38" s="6" t="e">
+        <v>1.0348145463724931</v>
+      </c>
+      <c r="T38" s="6">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U38" s="6" t="e">
+        <v>0.99334882187530016</v>
+      </c>
+      <c r="U38" s="6">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V38" s="6" t="e">
+        <v>0.97325930173473829</v>
+      </c>
+      <c r="V38" s="6">
         <f t="shared" ref="V38:Z38" si="46">V8/V15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W38" s="6" t="e">
+        <v>1.0174517947554877</v>
+      </c>
+      <c r="W38" s="6">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X38" s="6" t="e">
+        <v>0.97748776853031605</v>
+      </c>
+      <c r="X38" s="6">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y38" s="6" t="e">
+        <v>1.0265658602039411</v>
+      </c>
+      <c r="Y38" s="6">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z38" s="6" t="e">
+        <v>1.0787230788432285</v>
+      </c>
+      <c r="Z38" s="6">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA38" s="6" t="e">
+        <v>1.0204049892171247</v>
+      </c>
+      <c r="AA38" s="6">
         <f>AVERAGE(B38:Z38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB38" s="6" t="e">
+        <v>1.0211870829234704</v>
+      </c>
+      <c r="AB38" s="6">
         <f>MEDIAN(B38:Z38)</f>
-        <v>#DIV/0!</v>
+        <v>1.032822863027353</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
@@ -3254,53 +3381,53 @@
         <f t="shared" si="47"/>
         <v>1.852319736956253</v>
       </c>
-      <c r="Q39" s="6" t="e">
+      <c r="Q39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R39" s="6" t="e">
+        <v>1.5386760146383756</v>
+      </c>
+      <c r="R39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S39" s="6" t="e">
+        <v>1.4455502751990952</v>
+      </c>
+      <c r="S39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T39" s="6" t="e">
+        <v>1.5500629042296268</v>
+      </c>
+      <c r="T39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U39" s="6" t="e">
+        <v>1.700221533271663</v>
+      </c>
+      <c r="U39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V39" s="6" t="e">
+        <v>1.7423729388123987</v>
+      </c>
+      <c r="V39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W39" s="6" t="e">
+        <v>1.8507124748717976</v>
+      </c>
+      <c r="W39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X39" s="6" t="e">
+        <v>1.8046755537442021</v>
+      </c>
+      <c r="X39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y39" s="6" t="e">
+        <v>1.9134804408718358</v>
+      </c>
+      <c r="Y39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z39" s="6" t="e">
+        <v>1.9076484788066708</v>
+      </c>
+      <c r="Z39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA39" s="6" t="e">
+        <v>1.6242918487122306</v>
+      </c>
+      <c r="AA39" s="6">
         <f>AVERAGE(B39:Z39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB39" s="6" t="e">
+        <v>1.6892335054881957</v>
+      </c>
+      <c r="AB39" s="6">
         <f>MEDIAN(B39:Z39)</f>
-        <v>#DIV/0!</v>
+        <v>1.7212441775575134</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -3335,7 +3462,7 @@
     </row>
     <row r="41" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3431,43 +3558,43 @@
       </c>
       <c r="Q42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>6.8003356139599997</v>
       </c>
       <c r="R42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>6.88721060576</v>
       </c>
       <c r="S42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>8.9136418050599993</v>
       </c>
       <c r="T42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>7.8219274826700005</v>
       </c>
       <c r="U42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>7.1735618247400001</v>
       </c>
       <c r="V42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>10.596965330450001</v>
       </c>
       <c r="W42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>9.3488442790199997</v>
       </c>
       <c r="X42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>14.6831078467</v>
       </c>
       <c r="Y42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>9.9393930084999997</v>
       </c>
       <c r="Z42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>8.685703350919999</v>
       </c>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
@@ -3477,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="6">
-        <f t="shared" ref="B43:Q45" si="49">B7+B14</f>
+        <f t="shared" ref="B43:B45" si="49">B7+B14</f>
         <v>328.89178022999999</v>
       </c>
       <c r="C43" s="6">
@@ -3538,43 +3665,43 @@
       </c>
       <c r="Q43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>505.01057401599996</v>
       </c>
       <c r="R43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>623.09154312300006</v>
       </c>
       <c r="S43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1153.9225419109998</v>
       </c>
       <c r="T43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>724.47314848300005</v>
       </c>
       <c r="U43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>543.15373730500005</v>
       </c>
       <c r="V43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1297.2135215819999</v>
       </c>
       <c r="W43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1136.7071390609999</v>
       </c>
       <c r="X43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>2230.3913765030002</v>
       </c>
       <c r="Y43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1180.6612721390002</v>
       </c>
       <c r="Z43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1080.252709184</v>
       </c>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
@@ -3645,43 +3772,43 @@
       </c>
       <c r="Q44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>30.5289139042</v>
       </c>
       <c r="R44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>36.893756166000003</v>
       </c>
       <c r="S44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>66.320039014200006</v>
       </c>
       <c r="T44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>40.942416990200002</v>
       </c>
       <c r="U44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>30.889554911499999</v>
       </c>
       <c r="V44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>71.738607349299997</v>
       </c>
       <c r="W44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>62.7387433484</v>
       </c>
       <c r="X44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>126.19863079229999</v>
       </c>
       <c r="Y44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>63.416448668000001</v>
       </c>
       <c r="Z44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>61.776645197999997</v>
       </c>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
@@ -3752,43 +3879,43 @@
       </c>
       <c r="Q45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>4.0216632282899996</v>
       </c>
       <c r="R45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>5.0763265759300005</v>
       </c>
       <c r="S45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>8.7388182279900004</v>
       </c>
       <c r="T45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>5.5596125975500001</v>
       </c>
       <c r="U45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>4.1938621813100001</v>
       </c>
       <c r="V45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>9.5094701824199994</v>
       </c>
       <c r="W45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>8.1413402606500007</v>
       </c>
       <c r="X45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>17.178812032779998</v>
       </c>
       <c r="Y45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>8.4249593362499997</v>
       </c>
       <c r="Z45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>8.1250680395899995</v>
       </c>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
@@ -3859,50 +3986,50 @@
       </c>
       <c r="Q46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>4.0216632282899996</v>
       </c>
       <c r="R46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>5.0763265759300005</v>
       </c>
       <c r="S46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>8.7388182279900004</v>
       </c>
       <c r="T46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>5.5596125975500001</v>
       </c>
       <c r="U46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>4.1938621813100001</v>
       </c>
       <c r="V46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>9.5094701824199994</v>
       </c>
       <c r="W46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>8.1413402606500007</v>
       </c>
       <c r="X46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>14.6831078467</v>
       </c>
       <c r="Y46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>8.4249593362499997</v>
       </c>
       <c r="Z46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>8.1250680395899995</v>
       </c>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B42:Z45">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>B$46</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3915,8 +4042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4182,16 +4309,36 @@
       <c r="P6" s="6">
         <v>4.4894898911699999</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="Q6" s="6">
+        <v>5.8895827513399999</v>
+      </c>
+      <c r="R6" s="6">
+        <v>4.2425377253700001</v>
+      </c>
+      <c r="S6" s="6">
+        <v>4.1692389710300004</v>
+      </c>
+      <c r="T6" s="6">
+        <v>6.8508319469399996</v>
+      </c>
+      <c r="U6" s="6">
+        <v>4.4531678047399996</v>
+      </c>
+      <c r="V6" s="6">
+        <v>4.1498976486199997</v>
+      </c>
+      <c r="W6" s="6">
+        <v>4.4345746377899999</v>
+      </c>
+      <c r="X6" s="6">
+        <v>4.3094240386999996</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>7.04174182621</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>7.0123119251399997</v>
+      </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
     </row>
@@ -4244,16 +4391,36 @@
       <c r="P7" s="6">
         <v>677.40937793099999</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="Q7" s="6">
+        <v>1087.7183588299999</v>
+      </c>
+      <c r="R7" s="6">
+        <v>616.34507118199997</v>
+      </c>
+      <c r="S7" s="6">
+        <v>565.01928148299999</v>
+      </c>
+      <c r="T7" s="6">
+        <v>1485.2530294999999</v>
+      </c>
+      <c r="U7" s="6">
+        <v>683.06843286399999</v>
+      </c>
+      <c r="V7" s="6">
+        <v>546.77274474199999</v>
+      </c>
+      <c r="W7" s="6">
+        <v>699.99513698999999</v>
+      </c>
+      <c r="X7" s="6">
+        <v>619.31172098499997</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>1609.0916912800001</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>1585.49551507</v>
+      </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
@@ -4306,16 +4473,36 @@
       <c r="P8" s="6">
         <v>53.673538154200003</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
+      <c r="Q8" s="6">
+        <v>88.019980358500007</v>
+      </c>
+      <c r="R8" s="6">
+        <v>50.4534666829</v>
+      </c>
+      <c r="S8" s="6">
+        <v>47.124831241000003</v>
+      </c>
+      <c r="T8" s="6">
+        <v>121.76599886299999</v>
+      </c>
+      <c r="U8" s="6">
+        <v>55.4480763157</v>
+      </c>
+      <c r="V8" s="6">
+        <v>44.666966184800003</v>
+      </c>
+      <c r="W8" s="6">
+        <v>55.614997860800003</v>
+      </c>
+      <c r="X8" s="6">
+        <v>47.826884892499997</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>132.60717902799999</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>126.99265988499999</v>
+      </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
@@ -4368,16 +4555,36 @@
       <c r="P9" s="6">
         <v>8.3524928808900007</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
+      <c r="Q9" s="6">
+        <v>14.057753568900001</v>
+      </c>
+      <c r="R9" s="6">
+        <v>7.8117803443699998</v>
+      </c>
+      <c r="S9" s="6">
+        <v>7.2532643801500001</v>
+      </c>
+      <c r="T9" s="6">
+        <v>19.057362851200001</v>
+      </c>
+      <c r="U9" s="6">
+        <v>8.5467323558599997</v>
+      </c>
+      <c r="V9" s="6">
+        <v>6.9162757090399998</v>
+      </c>
+      <c r="W9" s="6">
+        <v>8.5018638286700003</v>
+      </c>
+      <c r="X9" s="6">
+        <v>7.5303033357600002</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>21.205435230999999</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>20.006735319099999</v>
+      </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
@@ -4447,43 +4654,43 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.8895827513399999</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.2425377253700001</v>
       </c>
       <c r="S10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1692389710300004</v>
       </c>
       <c r="T10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.8508319469399996</v>
       </c>
       <c r="U10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.4531678047399996</v>
       </c>
       <c r="V10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1498976486199997</v>
       </c>
       <c r="W10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.4345746377899999</v>
       </c>
       <c r="X10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3094240386999996</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.04174182621</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.0123119251399997</v>
       </c>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -4599,16 +4806,36 @@
       <c r="P13" s="6">
         <v>6.5332819846400003</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
+      <c r="Q13" s="6">
+        <v>9.5057559650000005</v>
+      </c>
+      <c r="R13" s="6">
+        <v>6.2007478994499996</v>
+      </c>
+      <c r="S13" s="6">
+        <v>5.8151617638199999</v>
+      </c>
+      <c r="T13" s="6">
+        <v>12.511351450999999</v>
+      </c>
+      <c r="U13" s="6">
+        <v>6.6347337408199998</v>
+      </c>
+      <c r="V13" s="6">
+        <v>5.62666690987</v>
+      </c>
+      <c r="W13" s="6">
+        <v>6.64397816461</v>
+      </c>
+      <c r="X13" s="6">
+        <v>6.0278030309600004</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>14.109898851800001</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>13.0652303234</v>
+      </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
     </row>
@@ -4661,16 +4888,36 @@
       <c r="P14" s="6">
         <v>1256.6172796599999</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
+      <c r="Q14" s="6">
+        <v>2046.12885106</v>
+      </c>
+      <c r="R14" s="6">
+        <v>1166.25136647</v>
+      </c>
+      <c r="S14" s="6">
+        <v>1089.8671617699999</v>
+      </c>
+      <c r="T14" s="6">
+        <v>2827.4626887099998</v>
+      </c>
+      <c r="U14" s="6">
+        <v>1288.8369091500001</v>
+      </c>
+      <c r="V14" s="6">
+        <v>1028.8604638899999</v>
+      </c>
+      <c r="W14" s="6">
+        <v>1322.8580520600001</v>
+      </c>
+      <c r="X14" s="6">
+        <v>1122.9538985199999</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>3029.8909872200002</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>2964.19528425</v>
+      </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
@@ -4723,16 +4970,36 @@
       <c r="P15" s="6">
         <v>54.310833240800001</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
+      <c r="Q15" s="6">
+        <v>88.849854352899996</v>
+      </c>
+      <c r="R15" s="6">
+        <v>51.069398618100003</v>
+      </c>
+      <c r="S15" s="6">
+        <v>48.0492208207</v>
+      </c>
+      <c r="T15" s="6">
+        <v>123.419249931</v>
+      </c>
+      <c r="U15" s="6">
+        <v>55.921362718099999</v>
+      </c>
+      <c r="V15" s="6">
+        <v>45.703155084800002</v>
+      </c>
+      <c r="W15" s="6">
+        <v>56.517373174399999</v>
+      </c>
+      <c r="X15" s="6">
+        <v>49.330081833100003</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>125.191344757</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>127.984932892</v>
+      </c>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
@@ -4785,16 +5052,36 @@
       <c r="P16" s="6">
         <v>6.1628597275099999</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
+      <c r="Q16" s="6">
+        <v>10.2692246031</v>
+      </c>
+      <c r="R16" s="6">
+        <v>5.7266170221700001</v>
+      </c>
+      <c r="S16" s="6">
+        <v>5.3764860309599998</v>
+      </c>
+      <c r="T16" s="6">
+        <v>13.9522658902</v>
+      </c>
+      <c r="U16" s="6">
+        <v>6.2912228693600003</v>
+      </c>
+      <c r="V16" s="6">
+        <v>5.12039574799</v>
+      </c>
+      <c r="W16" s="6">
+        <v>6.5013854315800002</v>
+      </c>
+      <c r="X16" s="6">
+        <v>5.6090660568799997</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>14.2423249267</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>14.5905016898</v>
+      </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
@@ -4864,43 +5151,43 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5057559650000005</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.7266170221700001</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.3764860309599998</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.511351450999999</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.2912228693600003</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.12039574799</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.5013854315800002</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.6090660568799997</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.109898851800001</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.0652303234</v>
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -5209,53 +5496,53 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="6" t="e">
+      <c r="Q24" s="6">
         <f t="shared" ref="Q24:U24" si="6">Q6/Q$10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="R24" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="S24" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="T24" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="U24" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="V24" s="6">
         <f t="shared" ref="V24:Z24" si="7">V6/V$10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="W24" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="X24" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="6">
         <f>AVERAGE(B24:Z24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="6">
         <f>MEDIAN(B24:Z24)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -5322,53 +5609,53 @@
         <f t="shared" si="11"/>
         <v>150.88782787178997</v>
       </c>
-      <c r="Q25" s="6" t="e">
+      <c r="Q25" s="6">
         <f t="shared" ref="Q25:U25" si="12">Q7/Q$10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="6" t="e">
+        <v>184.68513046743794</v>
+      </c>
+      <c r="R25" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="6" t="e">
+        <v>145.27745210049895</v>
+      </c>
+      <c r="S25" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="6" t="e">
+        <v>135.52096327628189</v>
+      </c>
+      <c r="T25" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="6" t="e">
+        <v>216.79892909406496</v>
+      </c>
+      <c r="U25" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="6" t="e">
+        <v>153.38933155335727</v>
+      </c>
+      <c r="V25" s="6">
         <f t="shared" ref="V25:Z25" si="13">V7/V$10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="6" t="e">
+        <v>131.75571810158328</v>
+      </c>
+      <c r="W25" s="6">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X25" s="6" t="e">
+        <v>157.84944310664423</v>
+      </c>
+      <c r="X25" s="6">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y25" s="6" t="e">
+        <v>143.71101925068956</v>
+      </c>
+      <c r="Y25" s="6">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z25" s="6" t="e">
+        <v>228.50762368066594</v>
+      </c>
+      <c r="Z25" s="6">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA25" s="6" t="e">
+        <v>226.10168115679565</v>
+      </c>
+      <c r="AA25" s="6">
         <f>AVERAGE(B25:Z25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB25" s="6" t="e">
+        <v>176.5065768433675</v>
+      </c>
+      <c r="AB25" s="6">
         <f>MEDIAN(B25:Z25)</f>
-        <v>#DIV/0!</v>
+        <v>184.0105260187344</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -5435,53 +5722,53 @@
         <f t="shared" si="16"/>
         <v>11.955375656322552</v>
       </c>
-      <c r="Q26" s="6" t="e">
+      <c r="Q26" s="6">
         <f t="shared" ref="Q26:U26" si="17">Q8/Q$10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="6" t="e">
+        <v>14.945028209082158</v>
+      </c>
+      <c r="R26" s="6">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="6" t="e">
+        <v>11.892284747685975</v>
+      </c>
+      <c r="S26" s="6">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="6" t="e">
+        <v>11.302981567726718</v>
+      </c>
+      <c r="T26" s="6">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" s="6" t="e">
+        <v>17.773899550606863</v>
+      </c>
+      <c r="U26" s="6">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V26" s="6" t="e">
+        <v>12.451378153026363</v>
+      </c>
+      <c r="V26" s="6">
         <f t="shared" ref="V26:Z26" si="18">V8/V$10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W26" s="6" t="e">
+        <v>10.763389839181572</v>
+      </c>
+      <c r="W26" s="6">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X26" s="6" t="e">
+        <v>12.541224898295118</v>
+      </c>
+      <c r="X26" s="6">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y26" s="6" t="e">
+        <v>11.09820812781461</v>
+      </c>
+      <c r="Y26" s="6">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z26" s="6" t="e">
+        <v>18.83158773791224</v>
+      </c>
+      <c r="Z26" s="6">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA26" s="6" t="e">
+        <v>18.109955923340447</v>
+      </c>
+      <c r="AA26" s="6">
         <f>AVERAGE(B26:Z26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB26" s="6" t="e">
+        <v>14.229352825128947</v>
+      </c>
+      <c r="AB26" s="6">
         <f>MEDIAN(B26:Z26)</f>
-        <v>#DIV/0!</v>
+        <v>14.945028209082158</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -5548,53 +5835,53 @@
         <f t="shared" si="19"/>
         <v>1.8604547695536227</v>
       </c>
-      <c r="Q27" s="6" t="e">
+      <c r="Q27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="6" t="e">
+        <v>2.3868844640482512</v>
+      </c>
+      <c r="R27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="6" t="e">
+        <v>1.8412989701084435</v>
+      </c>
+      <c r="S27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" s="6" t="e">
+        <v>1.7397094363142487</v>
+      </c>
+      <c r="T27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U27" s="6" t="e">
+        <v>2.7817589161141494</v>
+      </c>
+      <c r="U27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V27" s="6" t="e">
+        <v>1.9192477648748754</v>
+      </c>
+      <c r="V27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W27" s="6" t="e">
+        <v>1.666613563671848</v>
+      </c>
+      <c r="W27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X27" s="6" t="e">
+        <v>1.9171768485346683</v>
+      </c>
+      <c r="X27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y27" s="6" t="e">
+        <v>1.7474036595460274</v>
+      </c>
+      <c r="Y27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z27" s="6" t="e">
+        <v>3.011390612486168</v>
+      </c>
+      <c r="Z27" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA27" s="6" t="e">
+        <v>2.8530869038174691</v>
+      </c>
+      <c r="AA27" s="6">
         <f>AVERAGE(B27:Z27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB27" s="6" t="e">
+        <v>2.2508377648796145</v>
+      </c>
+      <c r="AB27" s="6">
         <f>MEDIAN(B27:Z27)</f>
-        <v>#DIV/0!</v>
+        <v>2.3705697706141153</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -5723,53 +6010,53 @@
         <f t="shared" si="23"/>
         <v>1.0601055797970698</v>
       </c>
-      <c r="Q30" s="6" t="e">
+      <c r="Q30" s="6">
         <f t="shared" ref="Q30:U30" si="24">Q13/Q$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R30" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="R30" s="6">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="6" t="e">
+        <v>1.0827942353128297</v>
+      </c>
+      <c r="S30" s="6">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="6" t="e">
+        <v>1.0815915321520275</v>
+      </c>
+      <c r="T30" s="6">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U30" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="U30" s="6">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V30" s="6" t="e">
+        <v>1.0546016058551975</v>
+      </c>
+      <c r="V30" s="6">
         <f t="shared" ref="V30:Z30" si="25">V13/V$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W30" s="6" t="e">
+        <v>1.0988734439283792</v>
+      </c>
+      <c r="W30" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X30" s="6" t="e">
+        <v>1.0219326687412449</v>
+      </c>
+      <c r="X30" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y30" s="6" t="e">
+        <v>1.0746536000527902</v>
+      </c>
+      <c r="Y30" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z30" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA30" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="6">
         <f>AVERAGE(B30:Z30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB30" s="6" t="e">
+        <v>1.0413005889077682</v>
+      </c>
+      <c r="AB30" s="6">
         <f>MEDIAN(B30:Z30)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -5836,53 +6123,53 @@
         <f t="shared" si="29"/>
         <v>203.90165202862974</v>
       </c>
-      <c r="Q31" s="6" t="e">
+      <c r="Q31" s="6">
         <f t="shared" ref="Q31:U31" si="30">Q14/Q$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" s="6" t="e">
+        <v>215.25156532461014</v>
+      </c>
+      <c r="R31" s="6">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S31" s="6" t="e">
+        <v>203.65450700736221</v>
+      </c>
+      <c r="S31" s="6">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="6" t="e">
+        <v>202.70994019032139</v>
+      </c>
+      <c r="T31" s="6">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U31" s="6" t="e">
+        <v>225.99178831987876</v>
+      </c>
+      <c r="U31" s="6">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V31" s="6" t="e">
+        <v>204.86270092687278</v>
+      </c>
+      <c r="V31" s="6">
         <f t="shared" ref="V31:Z31" si="31">V14/V$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W31" s="6" t="e">
+        <v>200.93377827170426</v>
+      </c>
+      <c r="W31" s="6">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X31" s="6" t="e">
+        <v>203.473254428866</v>
+      </c>
+      <c r="X31" s="6">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y31" s="6" t="e">
+        <v>200.20336489754848</v>
+      </c>
+      <c r="Y31" s="6">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z31" s="6" t="e">
+        <v>214.73513162948555</v>
+      </c>
+      <c r="Z31" s="6">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA31" s="6" t="e">
+        <v>226.87661915466481</v>
+      </c>
+      <c r="AA31" s="6">
         <f>AVERAGE(B31:Z31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB31" s="6" t="e">
+        <v>210.66448734885947</v>
+      </c>
+      <c r="AB31" s="6">
         <f>MEDIAN(B31:Z31)</f>
-        <v>#DIV/0!</v>
+        <v>209.04770392697901</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -5949,53 +6236,53 @@
         <f t="shared" si="34"/>
         <v>8.8126025322895654</v>
       </c>
-      <c r="Q32" s="6" t="e">
+      <c r="Q32" s="6">
         <f t="shared" ref="Q32:U32" si="35">Q15/Q$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="6" t="e">
+        <v>9.3469530124740583</v>
+      </c>
+      <c r="R32" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S32" s="6" t="e">
+        <v>8.917900118061004</v>
+      </c>
+      <c r="S32" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="6" t="e">
+        <v>8.9369191222692645</v>
+      </c>
+      <c r="T32" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U32" s="6" t="e">
+        <v>9.8645818091166664</v>
+      </c>
+      <c r="U32" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V32" s="6" t="e">
+        <v>8.888790602293323</v>
+      </c>
+      <c r="V32" s="6">
         <f t="shared" ref="V32:Z32" si="36">V15/V$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W32" s="6" t="e">
+        <v>8.9257075691348025</v>
+      </c>
+      <c r="W32" s="6">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X32" s="6" t="e">
+        <v>8.6931276062900427</v>
+      </c>
+      <c r="X32" s="6">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y32" s="6" t="e">
+        <v>8.7947050957961945</v>
+      </c>
+      <c r="Y32" s="6">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z32" s="6" t="e">
+        <v>8.8725898088935864</v>
+      </c>
+      <c r="Z32" s="6">
         <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA32" s="6" t="e">
+        <v>9.7958420727399886</v>
+      </c>
+      <c r="AA32" s="6">
         <f>AVERAGE(B32:Z32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB32" s="6" t="e">
+        <v>9.1508862317871937</v>
+      </c>
+      <c r="AB32" s="6">
         <f>MEDIAN(B32:Z32)</f>
-        <v>#DIV/0!</v>
+        <v>9.0531634370563872</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
@@ -6062,53 +6349,53 @@
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="Q33" s="6" t="e">
+      <c r="Q33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R33" s="6" t="e">
+        <v>1.0803164567774595</v>
+      </c>
+      <c r="R33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="S33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="T33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U33" s="6" t="e">
+        <v>1.1151685687068467</v>
+      </c>
+      <c r="U33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="V33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="W33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="X33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z33" s="6" t="e">
+        <v>1.0093853312692675</v>
+      </c>
+      <c r="Z33" s="6">
         <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA33" s="6" t="e">
+        <v>1.1167427843708364</v>
+      </c>
+      <c r="AA33" s="6">
         <f>AVERAGE(B33:Z33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB33" s="6" t="e">
+        <v>1.0427675005287691</v>
+      </c>
+      <c r="AB33" s="6">
         <f>MEDIAN(B33:Z33)</f>
-        <v>#DIV/0!</v>
+        <v>1.0263691723272661</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
@@ -6143,7 +6430,7 @@
     </row>
     <row r="35" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -6237,53 +6524,53 @@
         <f t="shared" si="38"/>
         <v>0.68717222090290375</v>
       </c>
-      <c r="Q36" s="6" t="e">
+      <c r="Q36" s="6">
         <f t="shared" ref="Q36:U36" si="39">Q6/Q13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R36" s="6" t="e">
+        <v>0.61958068069760297</v>
+      </c>
+      <c r="R36" s="6">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S36" s="6" t="e">
+        <v>0.6841977442344187</v>
+      </c>
+      <c r="S36" s="6">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T36" s="6" t="e">
+        <v>0.71696010194757043</v>
+      </c>
+      <c r="T36" s="6">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U36" s="6" t="e">
+        <v>0.54756929926961895</v>
+      </c>
+      <c r="U36" s="6">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V36" s="6" t="e">
+        <v>0.67119013041051201</v>
+      </c>
+      <c r="V36" s="6">
         <f t="shared" ref="V36:Z36" si="40">V6/V13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W36" s="6" t="e">
+        <v>0.73754101941603645</v>
+      </c>
+      <c r="W36" s="6">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X36" s="6" t="e">
+        <v>0.66745773810807041</v>
+      </c>
+      <c r="X36" s="6">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y36" s="6" t="e">
+        <v>0.7149244951379361</v>
+      </c>
+      <c r="Y36" s="6">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z36" s="6" t="e">
+        <v>0.49906394795393483</v>
+      </c>
+      <c r="Z36" s="6">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA36" s="6" t="e">
+        <v>0.53671552292353064</v>
+      </c>
+      <c r="AA36" s="6">
         <f>AVERAGE(B36:Z36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB36" s="6" t="e">
+        <v>0.63278675538161389</v>
+      </c>
+      <c r="AB36" s="6">
         <f>MEDIAN(B36:Z36)</f>
-        <v>#DIV/0!</v>
+        <v>0.61958068069760297</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
@@ -6350,53 +6637,53 @@
         <f t="shared" si="41"/>
         <v>0.53907374098363914</v>
       </c>
-      <c r="Q37" s="6" t="e">
+      <c r="Q37" s="6">
         <f t="shared" ref="Q37:U37" si="42">Q7/Q14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R37" s="6" t="e">
+        <v>0.53159817294326595</v>
+      </c>
+      <c r="R37" s="6">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S37" s="6" t="e">
+        <v>0.52848390055700267</v>
+      </c>
+      <c r="S37" s="6">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T37" s="6" t="e">
+        <v>0.51842949425632734</v>
+      </c>
+      <c r="T37" s="6">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U37" s="6" t="e">
+        <v>0.52529535948629302</v>
+      </c>
+      <c r="U37" s="6">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V37" s="6" t="e">
+        <v>0.52998826152060619</v>
+      </c>
+      <c r="V37" s="6">
         <f t="shared" ref="V37:Z37" si="43">V7/V14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W37" s="6" t="e">
+        <v>0.53143527614494668</v>
+      </c>
+      <c r="W37" s="6">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X37" s="6" t="e">
+        <v>0.52915362755659501</v>
+      </c>
+      <c r="X37" s="6">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y37" s="6" t="e">
+        <v>0.55150235624207145</v>
+      </c>
+      <c r="Y37" s="6">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z37" s="6" t="e">
+        <v>0.53107247028592985</v>
+      </c>
+      <c r="Z37" s="6">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA37" s="6" t="e">
+        <v>0.53488227428685142</v>
+      </c>
+      <c r="AA37" s="6">
         <f>AVERAGE(B37:Z37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB37" s="6" t="e">
+        <v>0.53392592628604074</v>
+      </c>
+      <c r="AB37" s="6">
         <f>MEDIAN(B37:Z37)</f>
-        <v>#DIV/0!</v>
+        <v>0.5333979804299086</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
@@ -6463,53 +6750,53 @@
         <f t="shared" si="44"/>
         <v>0.98826578329641157</v>
       </c>
-      <c r="Q38" s="6" t="e">
+      <c r="Q38" s="6">
         <f t="shared" ref="Q38:U38" si="45">Q8/Q15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R38" s="6" t="e">
+        <v>0.9906598159282981</v>
+      </c>
+      <c r="R38" s="6">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S38" s="6" t="e">
+        <v>0.98793931489567799</v>
+      </c>
+      <c r="S38" s="6">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T38" s="6" t="e">
+        <v>0.98076161144944596</v>
+      </c>
+      <c r="T38" s="6">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U38" s="6" t="e">
+        <v>0.98660459313337034</v>
+      </c>
+      <c r="U38" s="6">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V38" s="6" t="e">
+        <v>0.99153657244037774</v>
+      </c>
+      <c r="V38" s="6">
         <f t="shared" ref="V38:Z38" si="46">V8/V15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W38" s="6" t="e">
+        <v>0.97732784753968516</v>
+      </c>
+      <c r="W38" s="6">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X38" s="6" t="e">
+        <v>0.98403366499685918</v>
+      </c>
+      <c r="X38" s="6">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y38" s="6" t="e">
+        <v>0.96952778335771228</v>
+      </c>
+      <c r="Y38" s="6">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z38" s="6" t="e">
+        <v>1.0592359981865707</v>
+      </c>
+      <c r="Z38" s="6">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA38" s="6" t="e">
+        <v>0.99224695450801748</v>
+      </c>
+      <c r="AA38" s="6">
         <f>AVERAGE(B38:Z38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB38" s="6" t="e">
+        <v>0.98879033957584139</v>
+      </c>
+      <c r="AB38" s="6">
         <f>MEDIAN(B38:Z38)</f>
-        <v>#DIV/0!</v>
+        <v>0.9871338054486154</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
@@ -6576,53 +6863,53 @@
         <f t="shared" si="47"/>
         <v>1.3552949848275526</v>
       </c>
-      <c r="Q39" s="6" t="e">
+      <c r="Q39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R39" s="6" t="e">
+        <v>1.3689206451533202</v>
+      </c>
+      <c r="R39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S39" s="6" t="e">
+        <v>1.3641178228136275</v>
+      </c>
+      <c r="S39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T39" s="6" t="e">
+        <v>1.349071556846376</v>
+      </c>
+      <c r="T39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U39" s="6" t="e">
+        <v>1.3658973389107927</v>
+      </c>
+      <c r="U39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V39" s="6" t="e">
+        <v>1.3585168628320188</v>
+      </c>
+      <c r="V39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W39" s="6" t="e">
+        <v>1.3507306953285727</v>
+      </c>
+      <c r="W39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X39" s="6" t="e">
+        <v>1.3077003229762112</v>
+      </c>
+      <c r="X39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y39" s="6" t="e">
+        <v>1.3425235608561676</v>
+      </c>
+      <c r="Y39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z39" s="6" t="e">
+        <v>1.4889026433631141</v>
+      </c>
+      <c r="Z39" s="6">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA39" s="6" t="e">
+        <v>1.3712164080750153</v>
+      </c>
+      <c r="AA39" s="6">
         <f>AVERAGE(B39:Z39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB39" s="6" t="e">
+        <v>1.3694257639968179</v>
+      </c>
+      <c r="AB39" s="6">
         <f>MEDIAN(B39:Z39)</f>
-        <v>#DIV/0!</v>
+        <v>1.3605363814888849</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -6657,7 +6944,7 @@
     </row>
     <row r="41" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -6753,43 +7040,43 @@
       </c>
       <c r="Q42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>15.39533871634</v>
       </c>
       <c r="R42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>10.44328562482</v>
       </c>
       <c r="S42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>9.9844007348500003</v>
       </c>
       <c r="T42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>19.362183397940001</v>
       </c>
       <c r="U42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>11.087901545559999</v>
       </c>
       <c r="V42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>9.7765645584899996</v>
       </c>
       <c r="W42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>11.078552802400001</v>
       </c>
       <c r="X42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>10.337227069659999</v>
       </c>
       <c r="Y42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>21.151640678010001</v>
       </c>
       <c r="Z42" s="6">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>20.077542248539999</v>
       </c>
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
@@ -6799,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="6">
-        <f t="shared" ref="B43:Q45" si="49">B7+B14</f>
+        <f t="shared" ref="B43:B45" si="49">B7+B14</f>
         <v>3001.6697814099998</v>
       </c>
       <c r="C43" s="6">
@@ -6860,43 +7147,43 @@
       </c>
       <c r="Q43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>3133.8472098900002</v>
       </c>
       <c r="R43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1782.5964376520001</v>
       </c>
       <c r="S43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1654.8864432529999</v>
       </c>
       <c r="T43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>4312.71571821</v>
       </c>
       <c r="U43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1971.9053420140001</v>
       </c>
       <c r="V43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1575.6332086319999</v>
       </c>
       <c r="W43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>2022.8531890500001</v>
       </c>
       <c r="X43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1742.2656195049999</v>
       </c>
       <c r="Y43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>4638.9826785000005</v>
       </c>
       <c r="Z43" s="6">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>4549.6907993200002</v>
       </c>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
@@ -6967,43 +7254,43 @@
       </c>
       <c r="Q44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>176.86983471140002</v>
       </c>
       <c r="R44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>101.522865301</v>
       </c>
       <c r="S44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>95.174052061699996</v>
       </c>
       <c r="T44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>245.18524879399999</v>
       </c>
       <c r="U44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>111.36943903380001</v>
       </c>
       <c r="V44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>90.370121269600006</v>
       </c>
       <c r="W44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>112.13237103520001</v>
       </c>
       <c r="X44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>97.1569667256</v>
       </c>
       <c r="Y44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>257.79852378499999</v>
       </c>
       <c r="Z44" s="6">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>254.97759277699998</v>
       </c>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
@@ -7074,43 +7361,43 @@
       </c>
       <c r="Q45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>24.326978172</v>
       </c>
       <c r="R45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>13.53839736654</v>
       </c>
       <c r="S45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>12.629750411109999</v>
       </c>
       <c r="T45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>33.0096287414</v>
       </c>
       <c r="U45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>14.83795522522</v>
       </c>
       <c r="V45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>12.03667145703</v>
       </c>
       <c r="W45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>15.003249260250001</v>
       </c>
       <c r="X45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>13.139369392639999</v>
       </c>
       <c r="Y45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>35.447760157700003</v>
       </c>
       <c r="Z45" s="6">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>34.597237008899995</v>
       </c>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
@@ -7124,7 +7411,7 @@
         <v>14.96640009933</v>
       </c>
       <c r="C46" s="6">
-        <f t="shared" ref="C46:AB46" si="53">MIN(C42:C45)</f>
+        <f t="shared" ref="C46:Z46" si="53">MIN(C42:C45)</f>
         <v>16.19123633333</v>
       </c>
       <c r="D46" s="6">
@@ -7181,50 +7468,50 @@
       </c>
       <c r="Q46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>15.39533871634</v>
       </c>
       <c r="R46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>10.44328562482</v>
       </c>
       <c r="S46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>9.9844007348500003</v>
       </c>
       <c r="T46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>19.362183397940001</v>
       </c>
       <c r="U46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>11.087901545559999</v>
       </c>
       <c r="V46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>9.7765645584899996</v>
       </c>
       <c r="W46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>11.078552802400001</v>
       </c>
       <c r="X46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>10.337227069659999</v>
       </c>
       <c r="Y46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>21.151640678010001</v>
       </c>
       <c r="Z46" s="6">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>20.077542248539999</v>
       </c>
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B42:Z45">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>B$46</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7237,8 +7524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7510,16 +7797,36 @@
       <c r="P6" s="6">
         <v>13.0792866905</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="Q6" s="6">
+        <v>9.1168095297999994</v>
+      </c>
+      <c r="R6" s="6">
+        <v>11.7533589396</v>
+      </c>
+      <c r="S6" s="6">
+        <v>13.4555476303</v>
+      </c>
+      <c r="T6" s="6">
+        <v>6.5697222960900001</v>
+      </c>
+      <c r="U6" s="6">
+        <v>3.67554789266</v>
+      </c>
+      <c r="V6" s="6">
+        <v>3.85210393921</v>
+      </c>
+      <c r="W6" s="6">
+        <v>3.9249870160799998</v>
+      </c>
+      <c r="X6" s="6">
+        <v>13.3323237395</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>4.8838307863099999</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>12.147464383399999</v>
+      </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
     </row>
@@ -7572,16 +7879,36 @@
       <c r="P7" s="6">
         <v>3350.2170398500002</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="Q7" s="6">
+        <v>1949.77130539</v>
+      </c>
+      <c r="R7" s="6">
+        <v>2924.37833658</v>
+      </c>
+      <c r="S7" s="6">
+        <v>3405.02573712</v>
+      </c>
+      <c r="T7" s="6">
+        <v>1322.4297378700001</v>
+      </c>
+      <c r="U7" s="6">
+        <v>394.968979709</v>
+      </c>
+      <c r="V7" s="6">
+        <v>388.930060905</v>
+      </c>
+      <c r="W7" s="6">
+        <v>498.25883330599999</v>
+      </c>
+      <c r="X7" s="6">
+        <v>3174.2688258899998</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>822.77048331499998</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>2967.4090935099998</v>
+      </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
@@ -7634,16 +7961,36 @@
       <c r="P8" s="6">
         <v>251.64655161100001</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
+      <c r="Q8" s="6">
+        <v>151.20674530299999</v>
+      </c>
+      <c r="R8" s="6">
+        <v>222.17360918399999</v>
+      </c>
+      <c r="S8" s="6">
+        <v>258.26889180500001</v>
+      </c>
+      <c r="T8" s="6">
+        <v>98.553171676700003</v>
+      </c>
+      <c r="U8" s="6">
+        <v>28.612024758899999</v>
+      </c>
+      <c r="V8" s="6">
+        <v>28.535405384699999</v>
+      </c>
+      <c r="W8" s="6">
+        <v>36.035080426699999</v>
+      </c>
+      <c r="X8" s="6">
+        <v>243.460852238</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>60.9662373253</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>235.65263091200001</v>
+      </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
@@ -7696,16 +8043,36 @@
       <c r="P9" s="6">
         <v>42.882953780699999</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
+      <c r="Q9" s="6">
+        <v>24.1317678389</v>
+      </c>
+      <c r="R9" s="6">
+        <v>36.354046487399998</v>
+      </c>
+      <c r="S9" s="6">
+        <v>44.213530541700003</v>
+      </c>
+      <c r="T9" s="6">
+        <v>16.609078536799998</v>
+      </c>
+      <c r="U9" s="6">
+        <v>4.6581835182400004</v>
+      </c>
+      <c r="V9" s="6">
+        <v>4.5570820529400002</v>
+      </c>
+      <c r="W9" s="6">
+        <v>5.9459580885800003</v>
+      </c>
+      <c r="X9" s="6">
+        <v>40.900861082799999</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>10.311346586999999</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>39.324899464600001</v>
+      </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
@@ -7775,43 +8142,43 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.1168095297999994</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.7533589396</v>
       </c>
       <c r="S10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.4555476303</v>
       </c>
       <c r="T10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5697222960900001</v>
       </c>
       <c r="U10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.67554789266</v>
       </c>
       <c r="V10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.85210393921</v>
       </c>
       <c r="W10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9249870160799998</v>
       </c>
       <c r="X10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.3323237395</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8838307863099999</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.147464383399999</v>
       </c>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -7927,16 +8294,36 @@
       <c r="P13" s="6">
         <v>30.606806187099998</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
+      <c r="Q13" s="6">
+        <v>17.734265295699998</v>
+      </c>
+      <c r="R13" s="6">
+        <v>27.032204284199999</v>
+      </c>
+      <c r="S13" s="6">
+        <v>31.614825701899999</v>
+      </c>
+      <c r="T13" s="6">
+        <v>13.569549177100001</v>
+      </c>
+      <c r="U13" s="6">
+        <v>4.7465413810300001</v>
+      </c>
+      <c r="V13" s="6">
+        <v>4.7352684895700001</v>
+      </c>
+      <c r="W13" s="6">
+        <v>6.0328065205400003</v>
+      </c>
+      <c r="X13" s="6">
+        <v>29.357406786999999</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>9.3703657481700002</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>26.971238254900001</v>
+      </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
     </row>
@@ -7989,16 +8376,36 @@
       <c r="P14" s="6">
         <v>5536.77091294</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
+      <c r="Q14" s="6">
+        <v>3328.4695453099998</v>
+      </c>
+      <c r="R14" s="6">
+        <v>4936.4120102899997</v>
+      </c>
+      <c r="S14" s="6">
+        <v>5744.2142780599997</v>
+      </c>
+      <c r="T14" s="6">
+        <v>2167.09775365</v>
+      </c>
+      <c r="U14" s="6">
+        <v>622.82320651500004</v>
+      </c>
+      <c r="V14" s="6">
+        <v>613.88943427200002</v>
+      </c>
+      <c r="W14" s="6">
+        <v>798.18084562000001</v>
+      </c>
+      <c r="X14" s="6">
+        <v>5588.9660155700003</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>1257.43171674</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>5157.8752583599999</v>
+      </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
@@ -8051,16 +8458,36 @@
       <c r="P15" s="6">
         <v>230.60854248499999</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
+      <c r="Q15" s="6">
+        <v>140.01637909999999</v>
+      </c>
+      <c r="R15" s="6">
+        <v>204.51969156000001</v>
+      </c>
+      <c r="S15" s="6">
+        <v>245.51689317699999</v>
+      </c>
+      <c r="T15" s="6">
+        <v>93.922395671800004</v>
+      </c>
+      <c r="U15" s="6">
+        <v>28.266833577700002</v>
+      </c>
+      <c r="V15" s="6">
+        <v>28.239633423000001</v>
+      </c>
+      <c r="W15" s="6">
+        <v>35.693654342599999</v>
+      </c>
+      <c r="X15" s="6">
+        <v>239.71347470200001</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>54.647462623400003</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>229.10882077799999</v>
+      </c>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
@@ -8113,16 +8540,36 @@
       <c r="P16" s="6">
         <v>24.043429218</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
+      <c r="Q16" s="6">
+        <v>14.9177262602</v>
+      </c>
+      <c r="R16" s="6">
+        <v>20.2183599524</v>
+      </c>
+      <c r="S16" s="6">
+        <v>24.7924665418</v>
+      </c>
+      <c r="T16" s="6">
+        <v>8.7856909030000008</v>
+      </c>
+      <c r="U16" s="6">
+        <v>2.9469417625999998</v>
+      </c>
+      <c r="V16" s="6">
+        <v>2.9711547353799999</v>
+      </c>
+      <c r="W16" s="6">
+        <v>3.3706374265200001</v>
+      </c>
+      <c r="X16" s="6">
+        <v>24.061307147299999</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>5.1004262694099998</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>24.342643996700001</v>
+      </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
@@ -8192,43 +8639,43 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.9177262602</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.2183599524</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.7924665418</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.7856909030000008</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.9469417625999998</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.9711547353799999</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3706374265200001</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.061307147299999</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.1004262694099998</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.342643996700001</v>
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -8537,53 +8984,53 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="6" t="e">
+      <c r="Q24" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="R24" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="S24" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="T24" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="U24" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="V24" s="6">
         <f t="shared" ref="V24:Z24" si="3">V6/V$10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="W24" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="X24" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="6">
         <f>AVERAGE(B24:Z24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB24" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="6">
         <f>MEDIAN(B24:Z24)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -8650,53 +9097,53 @@
         <f t="shared" si="4"/>
         <v>256.14677001333678</v>
       </c>
-      <c r="Q25" s="6" t="e">
+      <c r="Q25" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="6" t="e">
+        <v>213.86553037187048</v>
+      </c>
+      <c r="R25" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="6" t="e">
+        <v>248.81213545916984</v>
+      </c>
+      <c r="S25" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="6" t="e">
+        <v>253.05738797671535</v>
+      </c>
+      <c r="T25" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="6" t="e">
+        <v>201.29157341354446</v>
+      </c>
+      <c r="U25" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="6" t="e">
+        <v>107.45853169203579</v>
+      </c>
+      <c r="V25" s="6">
         <f t="shared" ref="V25:Z25" si="5">V7/V$10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="6" t="e">
+        <v>100.96561957898852</v>
+      </c>
+      <c r="W25" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X25" s="6" t="e">
+        <v>126.9453456189075</v>
+      </c>
+      <c r="X25" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y25" s="6" t="e">
+        <v>238.08818986937112</v>
+      </c>
+      <c r="Y25" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z25" s="6" t="e">
+        <v>168.46826176314923</v>
+      </c>
+      <c r="Z25" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA25" s="6" t="e">
+        <v>244.28218102578546</v>
+      </c>
+      <c r="AA25" s="6">
         <f>AVERAGE(B25:Z25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB25" s="6" t="e">
+        <v>208.28397977812767</v>
+      </c>
+      <c r="AB25" s="6">
         <f>MEDIAN(B25:Z25)</f>
-        <v>#DIV/0!</v>
+        <v>219.1015925701075</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -8763,53 +9210,53 @@
         <f t="shared" si="6"/>
         <v>19.240082243459103</v>
       </c>
-      <c r="Q26" s="6" t="e">
+      <c r="Q26" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="6" t="e">
+        <v>16.585489124101191</v>
+      </c>
+      <c r="R26" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="6" t="e">
+        <v>18.902988526576998</v>
+      </c>
+      <c r="S26" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="6" t="e">
+        <v>19.194231175207971</v>
+      </c>
+      <c r="T26" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" s="6" t="e">
+        <v>15.001116825798613</v>
+      </c>
+      <c r="U26" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V26" s="6" t="e">
+        <v>7.7844244162993155</v>
+      </c>
+      <c r="V26" s="6">
         <f t="shared" ref="V26:Z27" si="7">V8/V$10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W26" s="6" t="e">
+        <v>7.4077454386010464</v>
+      </c>
+      <c r="W26" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X26" s="6" t="e">
+        <v>9.1809425812290453</v>
+      </c>
+      <c r="X26" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y26" s="6" t="e">
+        <v>18.260946628283005</v>
+      </c>
+      <c r="Y26" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z26" s="6" t="e">
+        <v>12.483282077707551</v>
+      </c>
+      <c r="Z26" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA26" s="6" t="e">
+        <v>19.399326762713446</v>
+      </c>
+      <c r="AA26" s="6">
         <f>AVERAGE(B26:Z26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB26" s="6" t="e">
+        <v>15.950996866985349</v>
+      </c>
+      <c r="AB26" s="6">
         <f>MEDIAN(B26:Z26)</f>
-        <v>#DIV/0!</v>
+        <v>17.016199509412701</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -8876,53 +9323,53 @@
         <f t="shared" si="6"/>
         <v>3.2786920873787082</v>
       </c>
-      <c r="Q27" s="6" t="e">
+      <c r="Q27" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="6" t="e">
+        <v>2.6469531649225311</v>
+      </c>
+      <c r="R27" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="6" t="e">
+        <v>3.0930771938661841</v>
+      </c>
+      <c r="S27" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" s="6" t="e">
+        <v>3.2858960301353588</v>
+      </c>
+      <c r="T27" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U27" s="6" t="e">
+        <v>2.5281249021263754</v>
+      </c>
+      <c r="U27" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V27" s="6" t="e">
+        <v>1.2673439863325697</v>
+      </c>
+      <c r="V27" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W27" s="6" t="e">
+        <v>1.1830111868358826</v>
+      </c>
+      <c r="W27" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X27" s="6" t="e">
+        <v>1.5148987918228591</v>
+      </c>
+      <c r="X27" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y27" s="6" t="e">
+        <v>3.0677968733703955</v>
+      </c>
+      <c r="Y27" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z27" s="6" t="e">
+        <v>2.111323474986893</v>
+      </c>
+      <c r="Z27" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA27" s="6" t="e">
+        <v>3.2372928393467091</v>
+      </c>
+      <c r="AA27" s="6">
         <f>AVERAGE(B27:Z27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB27" s="6" t="e">
+        <v>2.6704763122556261</v>
+      </c>
+      <c r="AB27" s="6">
         <f>MEDIAN(B27:Z27)</f>
-        <v>#DIV/0!</v>
+        <v>2.7421696047362119</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -9051,53 +9498,53 @@
         <f t="shared" si="11"/>
         <v>1.2729800690904089</v>
       </c>
-      <c r="Q30" s="6" t="e">
+      <c r="Q30" s="6">
         <f t="shared" ref="Q30:U30" si="12">Q13/Q$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R30" s="6" t="e">
+        <v>1.1888048477611786</v>
+      </c>
+      <c r="R30" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="6" t="e">
+        <v>1.3370127125959674</v>
+      </c>
+      <c r="S30" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="6" t="e">
+        <v>1.2751787180431413</v>
+      </c>
+      <c r="T30" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U30" s="6" t="e">
+        <v>1.544505642972994</v>
+      </c>
+      <c r="U30" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V30" s="6" t="e">
+        <v>1.6106668415606105</v>
+      </c>
+      <c r="V30" s="6">
         <f t="shared" ref="V30:Z30" si="13">V13/V$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W30" s="6" t="e">
+        <v>1.5937468463635491</v>
+      </c>
+      <c r="W30" s="6">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X30" s="6" t="e">
+        <v>1.7898117647048573</v>
+      </c>
+      <c r="X30" s="6">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y30" s="6" t="e">
+        <v>1.220108558827582</v>
+      </c>
+      <c r="Y30" s="6">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z30" s="6" t="e">
+        <v>1.8371730622534679</v>
+      </c>
+      <c r="Z30" s="6">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA30" s="6" t="e">
+        <v>1.1079831039946335</v>
+      </c>
+      <c r="AA30" s="6">
         <f>AVERAGE(B30:Z30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB30" s="6" t="e">
+        <v>1.3953827177445675</v>
+      </c>
+      <c r="AB30" s="6">
         <f>MEDIAN(B30:Z30)</f>
-        <v>#DIV/0!</v>
+        <v>1.3361694415994962</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -9164,53 +9611,53 @@
         <f t="shared" si="17"/>
         <v>230.28208092691381</v>
       </c>
-      <c r="Q31" s="6" t="e">
+      <c r="Q31" s="6">
         <f t="shared" ref="Q31:U31" si="18">Q14/Q$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" s="6" t="e">
+        <v>223.12177387181626</v>
+      </c>
+      <c r="R31" s="6">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S31" s="6" t="e">
+        <v>244.15491770409537</v>
+      </c>
+      <c r="S31" s="6">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="6" t="e">
+        <v>231.69192417282392</v>
+      </c>
+      <c r="T31" s="6">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U31" s="6" t="e">
+        <v>246.66218941415445</v>
+      </c>
+      <c r="U31" s="6">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V31" s="6" t="e">
+        <v>211.34561070032871</v>
+      </c>
+      <c r="V31" s="6">
         <f t="shared" ref="V31:Z31" si="19">V14/V$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W31" s="6" t="e">
+        <v>206.61644678478376</v>
+      </c>
+      <c r="W31" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X31" s="6" t="e">
+        <v>236.80412474505701</v>
+      </c>
+      <c r="X31" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y31" s="6" t="e">
+        <v>232.28023238118871</v>
+      </c>
+      <c r="Y31" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z31" s="6" t="e">
+        <v>246.53463266031201</v>
+      </c>
+      <c r="Z31" s="6">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA31" s="6" t="e">
+        <v>211.88640227656555</v>
+      </c>
+      <c r="AA31" s="6">
         <f>AVERAGE(B31:Z31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB31" s="6" t="e">
+        <v>231.16020892332025</v>
+      </c>
+      <c r="AB31" s="6">
         <f>MEDIAN(B31:Z31)</f>
-        <v>#DIV/0!</v>
+        <v>231.69192417282392</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -9277,53 +9724,53 @@
         <f t="shared" si="22"/>
         <v>9.5913332659035166</v>
       </c>
-      <c r="Q32" s="6" t="e">
+      <c r="Q32" s="6">
         <f t="shared" ref="Q32:U32" si="23">Q15/Q$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="6" t="e">
+        <v>9.3859061801904122</v>
+      </c>
+      <c r="R32" s="6">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S32" s="6" t="e">
+        <v>10.115543102482093</v>
+      </c>
+      <c r="S32" s="6">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="6" t="e">
+        <v>9.9028829085262444</v>
+      </c>
+      <c r="T32" s="6">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U32" s="6" t="e">
+        <v>10.690382430791965</v>
+      </c>
+      <c r="U32" s="6">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V32" s="6" t="e">
+        <v>9.5919213390769578</v>
+      </c>
+      <c r="V32" s="6">
         <f t="shared" ref="V32:Z32" si="24">V15/V$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W32" s="6" t="e">
+        <v>9.5045986958293689</v>
+      </c>
+      <c r="W32" s="6">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X32" s="6" t="e">
+        <v>10.589585833754821</v>
+      </c>
+      <c r="X32" s="6">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y32" s="6" t="e">
+        <v>9.9626123067424075</v>
+      </c>
+      <c r="Y32" s="6">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z32" s="6" t="e">
+        <v>10.714293225087918</v>
+      </c>
+      <c r="Z32" s="6">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA32" s="6" t="e">
+        <v>9.4118297424494646</v>
+      </c>
+      <c r="AA32" s="6">
         <f>AVERAGE(B32:Z32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB32" s="6" t="e">
+        <v>9.9282014064785145</v>
+      </c>
+      <c r="AB32" s="6">
         <f>MEDIAN(B32:Z32)</f>
-        <v>#DIV/0!</v>
+        <v>9.9028829085262444</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
@@ -9390,53 +9837,53 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="Q33" s="6" t="e">
+      <c r="Q33" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="R33" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="S33" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="T33" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="U33" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="V33" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="W33" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="X33" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="6">
         <f>AVERAGE(B33:Z33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB33" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="6">
         <f>MEDIAN(B33:Z33)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
@@ -9471,7 +9918,7 @@
     </row>
     <row r="35" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -9565,53 +10012,53 @@
         <f t="shared" si="26"/>
         <v>0.42733262041606263</v>
       </c>
-      <c r="Q36" s="6" t="e">
+      <c r="Q36" s="6">
         <f t="shared" ref="Q36:U36" si="27">Q6/Q13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R36" s="6" t="e">
+        <v>0.5140787835180598</v>
+      </c>
+      <c r="R36" s="6">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S36" s="6" t="e">
+        <v>0.43479099284810074</v>
+      </c>
+      <c r="S36" s="6">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T36" s="6" t="e">
+        <v>0.42560878738266594</v>
+      </c>
+      <c r="T36" s="6">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U36" s="6" t="e">
+        <v>0.48415184692923158</v>
+      </c>
+      <c r="U36" s="6">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V36" s="6" t="e">
+        <v>0.77436339380705155</v>
+      </c>
+      <c r="V36" s="6">
         <f t="shared" ref="V36:Z36" si="28">V6/V13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W36" s="6" t="e">
+        <v>0.81349219113862781</v>
+      </c>
+      <c r="W36" s="6">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X36" s="6" t="e">
+        <v>0.65060714324527547</v>
+      </c>
+      <c r="X36" s="6">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y36" s="6" t="e">
+        <v>0.45413833163914868</v>
+      </c>
+      <c r="Y36" s="6">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z36" s="6" t="e">
+        <v>0.52119959002281158</v>
+      </c>
+      <c r="Z36" s="6">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA36" s="6" t="e">
+        <v>0.45038586173154688</v>
+      </c>
+      <c r="AA36" s="6">
         <f>AVERAGE(B36:Z36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB36" s="6" t="e">
+        <v>0.50841221629788602</v>
+      </c>
+      <c r="AB36" s="6">
         <f>MEDIAN(B36:Z36)</f>
-        <v>#DIV/0!</v>
+        <v>0.48415184692923158</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
@@ -9678,53 +10125,53 @@
         <f t="shared" si="29"/>
         <v>0.60508500216619043</v>
       </c>
-      <c r="Q37" s="6" t="e">
+      <c r="Q37" s="6">
         <f t="shared" ref="Q37:U37" si="30">Q7/Q14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R37" s="6" t="e">
+        <v>0.58578613349109265</v>
+      </c>
+      <c r="R37" s="6">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S37" s="6" t="e">
+        <v>0.59240969564211909</v>
+      </c>
+      <c r="S37" s="6">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T37" s="6" t="e">
+        <v>0.59277484653131418</v>
+      </c>
+      <c r="T37" s="6">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U37" s="6" t="e">
+        <v>0.61023077322776864</v>
+      </c>
+      <c r="U37" s="6">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V37" s="6" t="e">
+        <v>0.63415906083372242</v>
+      </c>
+      <c r="V37" s="6">
         <f t="shared" ref="V37:Z37" si="31">V7/V14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W37" s="6" t="e">
+        <v>0.63355066758271361</v>
+      </c>
+      <c r="W37" s="6">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X37" s="6" t="e">
+        <v>0.62424303469593945</v>
+      </c>
+      <c r="X37" s="6">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y37" s="6" t="e">
+        <v>0.56795278716080477</v>
+      </c>
+      <c r="Y37" s="6">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z37" s="6" t="e">
+        <v>0.65432617323197739</v>
+      </c>
+      <c r="Z37" s="6">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA37" s="6" t="e">
+        <v>0.57531618057267997</v>
+      </c>
+      <c r="AA37" s="6">
         <f>AVERAGE(B37:Z37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB37" s="6" t="e">
+        <v>0.6015099284368115</v>
+      </c>
+      <c r="AB37" s="6">
         <f>MEDIAN(B37:Z37)</f>
-        <v>#DIV/0!</v>
+        <v>0.59385281364891329</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
@@ -9791,53 +10238,53 @@
         <f t="shared" si="32"/>
         <v>1.0912282298795086</v>
       </c>
-      <c r="Q38" s="6" t="e">
+      <c r="Q38" s="6">
         <f t="shared" ref="Q38:U38" si="33">Q8/Q15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R38" s="6" t="e">
+        <v>1.0799218368231607</v>
+      </c>
+      <c r="R38" s="6">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S38" s="6" t="e">
+        <v>1.0863189137893885</v>
+      </c>
+      <c r="S38" s="6">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T38" s="6" t="e">
+        <v>1.0519393939170074</v>
+      </c>
+      <c r="T38" s="6">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U38" s="6" t="e">
+        <v>1.0493042790463061</v>
+      </c>
+      <c r="U38" s="6">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V38" s="6" t="e">
+        <v>1.0122118800555122</v>
+      </c>
+      <c r="V38" s="6">
         <f t="shared" ref="V38:Z38" si="34">V8/V15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W38" s="6" t="e">
+        <v>1.0104736473476708</v>
+      </c>
+      <c r="W38" s="6">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X38" s="6" t="e">
+        <v>1.0095654561122511</v>
+      </c>
+      <c r="X38" s="6">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y38" s="6" t="e">
+        <v>1.0156327362934376</v>
+      </c>
+      <c r="Y38" s="6">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z38" s="6" t="e">
+        <v>1.1156279614562434</v>
+      </c>
+      <c r="Z38" s="6">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA38" s="6" t="e">
+        <v>1.0285620174368615</v>
+      </c>
+      <c r="AA38" s="6">
         <f>AVERAGE(B38:Z38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB38" s="6" t="e">
+        <v>1.0658178253321986</v>
+      </c>
+      <c r="AB38" s="6">
         <f>MEDIAN(B38:Z38)</f>
-        <v>#DIV/0!</v>
+        <v>1.0604326788064773</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
@@ -9904,53 +10351,53 @@
         <f t="shared" si="35"/>
         <v>1.783562294375042</v>
       </c>
-      <c r="Q39" s="6" t="e">
+      <c r="Q39" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R39" s="6" t="e">
+        <v>1.6176572366314803</v>
+      </c>
+      <c r="R39" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S39" s="6" t="e">
+        <v>1.7980709895851186</v>
+      </c>
+      <c r="S39" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T39" s="6" t="e">
+        <v>1.7833453749813948</v>
+      </c>
+      <c r="T39" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U39" s="6" t="e">
+        <v>1.8904692550848323</v>
+      </c>
+      <c r="U39" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V39" s="6" t="e">
+        <v>1.580683940672863</v>
+      </c>
+      <c r="V39" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W39" s="6" t="e">
+        <v>1.5337747303010008</v>
+      </c>
+      <c r="W39" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X39" s="6" t="e">
+        <v>1.7640455902487497</v>
+      </c>
+      <c r="X39" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y39" s="6" t="e">
+        <v>1.6998603123434057</v>
+      </c>
+      <c r="Y39" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z39" s="6" t="e">
+        <v>2.0216636889435482</v>
+      </c>
+      <c r="Z39" s="6">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA39" s="6" t="e">
+        <v>1.615473630141864</v>
+      </c>
+      <c r="AA39" s="6">
         <f>AVERAGE(B39:Z39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB39" s="6" t="e">
+        <v>1.767555508320122</v>
+      </c>
+      <c r="AB39" s="6">
         <f>MEDIAN(B39:Z39)</f>
-        <v>#DIV/0!</v>
+        <v>1.7711447240556666</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -9985,7 +10432,7 @@
     </row>
     <row r="41" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -10081,43 +10528,43 @@
       </c>
       <c r="Q42" s="6">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>26.8510748255</v>
       </c>
       <c r="R42" s="6">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>38.785563223799997</v>
       </c>
       <c r="S42" s="6">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>45.070373332199999</v>
       </c>
       <c r="T42" s="6">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>20.13927147319</v>
       </c>
       <c r="U42" s="6">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>8.4220892736900002</v>
       </c>
       <c r="V42" s="6">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>8.5873724287800002</v>
       </c>
       <c r="W42" s="6">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>9.9577935366200006</v>
       </c>
       <c r="X42" s="6">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>42.6897305265</v>
       </c>
       <c r="Y42" s="6">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>14.25419653448</v>
       </c>
       <c r="Z42" s="6">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>39.1187026383</v>
       </c>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
@@ -10127,7 +10574,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="6">
-        <f t="shared" ref="B43:Q45" si="37">B7+B14</f>
+        <f t="shared" ref="B43:B45" si="37">B7+B14</f>
         <v>3067.8280955800001</v>
       </c>
       <c r="C43" s="6">
@@ -10188,43 +10635,43 @@
       </c>
       <c r="Q43" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>5278.2408507</v>
       </c>
       <c r="R43" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>7860.7903468699997</v>
       </c>
       <c r="S43" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>9149.2400151799993</v>
       </c>
       <c r="T43" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>3489.5274915199998</v>
       </c>
       <c r="U43" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1017.792186224</v>
       </c>
       <c r="V43" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1002.819495177</v>
       </c>
       <c r="W43" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1296.4396789259999</v>
       </c>
       <c r="X43" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>8763.2348414600001</v>
       </c>
       <c r="Y43" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>2080.202200055</v>
       </c>
       <c r="Z43" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>8125.2843518699992</v>
       </c>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
@@ -10295,43 +10742,43 @@
       </c>
       <c r="Q44" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>291.22312440299999</v>
       </c>
       <c r="R44" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>426.693300744</v>
       </c>
       <c r="S44" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>503.785784982</v>
       </c>
       <c r="T44" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>192.47556734850002</v>
       </c>
       <c r="U44" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>56.878858336600004</v>
       </c>
       <c r="V44" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>56.7750388077</v>
       </c>
       <c r="W44" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>71.72873476929999</v>
       </c>
       <c r="X44" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>483.17432694000001</v>
       </c>
       <c r="Y44" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>115.6136999487</v>
       </c>
       <c r="Z44" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>464.76145169</v>
       </c>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
@@ -10402,43 +10849,43 @@
       </c>
       <c r="Q45" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>39.049494099100002</v>
       </c>
       <c r="R45" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>56.572406439799998</v>
       </c>
       <c r="S45" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>69.005997083500006</v>
       </c>
       <c r="T45" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>25.394769439800001</v>
       </c>
       <c r="U45" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>7.6051252808400003</v>
       </c>
       <c r="V45" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>7.5282367883200001</v>
       </c>
       <c r="W45" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>9.3165955151000013</v>
       </c>
       <c r="X45" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>64.962168230099991</v>
       </c>
       <c r="Y45" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>15.41177285641</v>
       </c>
       <c r="Z45" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>63.667543461299999</v>
       </c>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
@@ -10509,50 +10956,50 @@
       </c>
       <c r="Q46" s="6">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>26.8510748255</v>
       </c>
       <c r="R46" s="6">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>38.785563223799997</v>
       </c>
       <c r="S46" s="6">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>45.070373332199999</v>
       </c>
       <c r="T46" s="6">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>20.13927147319</v>
       </c>
       <c r="U46" s="6">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>7.6051252808400003</v>
       </c>
       <c r="V46" s="6">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>7.5282367883200001</v>
       </c>
       <c r="W46" s="6">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>9.3165955151000013</v>
       </c>
       <c r="X46" s="6">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>42.6897305265</v>
       </c>
       <c r="Y46" s="6">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>14.25419653448</v>
       </c>
       <c r="Z46" s="6">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>39.1187026383</v>
       </c>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B42:Z45">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>B$46</formula>
     </cfRule>
   </conditionalFormatting>
